--- a/xforms/xlsforms/location_registration.xlsx
+++ b/xforms/xlsforms/location_registration.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-135" windowWidth="15600" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="2865" yWindow="615" windowWidth="15600" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -156,18 +156,9 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>location_registration</t>
   </si>
   <si>
-    <t>Location registration</t>
-  </si>
-  <si>
-    <t>${locationId}</t>
-  </si>
-  <si>
     <t>deviceId</t>
   </si>
   <si>
@@ -178,15 +169,55 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>label::Portuguese</t>
+  </si>
+  <si>
+    <t>ExtId do Bairro</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>ExtId da Localização/Casa</t>
+  </si>
+  <si>
+    <t>Número da casa</t>
+  </si>
+  <si>
+    <t>Tipo da localização</t>
+  </si>
+  <si>
+    <t>Coordenadas Geograficas</t>
+  </si>
+  <si>
+    <t>Registo de Localizaçao\Casa</t>
+  </si>
+  <si>
+    <t>concat("Localizacao_",${locationName},"_", format-date(today(), '%Y%n%e'))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -262,405 +293,406 @@
   </borders>
   <cellStyleXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="351">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1346,33 +1378,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="23.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="5"/>
-    <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="26" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="5"/>
+    <col min="12" max="12" width="19.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="34.125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1380,59 +1413,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1444,15 +1480,16 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1464,15 +1501,16 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1484,8 +1522,9 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1493,28 +1532,31 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4" t="b">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1522,19 +1564,22 @@
         <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="J6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="b">
+      <c r="N6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1542,19 +1587,22 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="J7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="5" t="b">
+      <c r="N7" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1562,19 +1610,19 @@
         <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="J8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1582,16 +1630,19 @@
         <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="J9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1599,81 +1650,92 @@
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="5" t="b">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H13" s="2"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="7"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1681,8 +1743,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1690,8 +1753,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1699,27 +1763,30 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1727,8 +1794,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1736,8 +1804,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1745,8 +1814,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1754,8 +1824,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1763,9 +1834,10 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1773,9 +1845,10 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1783,9 +1856,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="2"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1793,8 +1867,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1802,64 +1877,65 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="3"/>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="3"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H30" s="2"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="3"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="3"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="3"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1868,37 +1944,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.75" style="14" customWidth="1"/>
     <col min="2" max="2" width="13" style="14" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="14"/>
+    <col min="3" max="3" width="18.75" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
@@ -1906,394 +1986,461 @@
         <v>41</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" s="15" customFormat="1">
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="15"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="15"/>
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="15"/>
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="15"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="15"/>
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="15"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="15"/>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="15"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="15"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="15"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="15"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="15"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="15"/>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="15"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="15"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="15"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="15"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="15"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="18"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="15"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="15"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="15"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="15"/>
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2302,16 +2449,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="64.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2321,16 +2474,22 @@
       <c r="C1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/location_registration.xlsx
+++ b/xforms/xlsforms/location_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="615" windowWidth="15600" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="2865" yWindow="615" windowWidth="15600" windowHeight="11700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>type</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>concat("Localizacao_",${locationName},"_", format-date(today(), '%Y%n%e'))</t>
+  </si>
+  <si>
+    <t>Urbano/Vila</t>
+  </si>
+  <si>
+    <t>URB</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1947,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -1983,24 +1989,34 @@
         <v>26</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="16"/>

--- a/xforms/xlsforms/location_registration.xlsx
+++ b/xforms/xlsforms/location_registration.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13125" tabRatio="500"/>
+    <workbookView windowWidth="21971" windowHeight="7600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -221,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -269,37 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -316,10 +285,49 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,8 +339,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,43 +369,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -406,8 +391,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +428,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,109 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,61 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,33 +624,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,8 +666,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,158 +705,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1304,24 +1304,24 @@
       <selection pane="bottomRight" activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8733333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10.8716216216216" defaultRowHeight="11.85"/>
   <cols>
-    <col min="1" max="1" width="23.8733333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="23.8716216216216" style="9" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="26" style="9" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="26" style="9" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="22.8733333333333" style="9" customWidth="1"/>
+    <col min="8" max="8" width="22.8716216216216" style="9" customWidth="1"/>
     <col min="9" max="9" width="25" style="9" customWidth="1"/>
-    <col min="10" max="11" width="10.8733333333333" style="9"/>
-    <col min="12" max="12" width="19.1266666666667" style="9" customWidth="1"/>
-    <col min="13" max="13" width="34.1266666666667" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="10.8733333333333" style="9"/>
+    <col min="10" max="11" width="10.8716216216216" style="9"/>
+    <col min="12" max="12" width="19.1283783783784" style="9" customWidth="1"/>
+    <col min="13" max="13" width="34.1283783783784" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="10.8716216216216" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" ht="11.9" spans="1:18">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" ht="11.9" spans="1:16">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" ht="11.9" spans="1:16">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" ht="11.9" spans="1:16">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" ht="11.9" spans="1:16">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" ht="11.9" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" ht="11.9" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="24" spans="1:10">
+    <row r="8" ht="23.75" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" ht="11.9" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" ht="11.9" spans="1:10">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" ht="11.9" spans="1:14">
       <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
@@ -1875,14 +1875,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8733333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.8716216216216" defaultRowHeight="13.35" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.7533333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.7533333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7533333333333" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.8733333333333" style="3"/>
+    <col min="5" max="5" width="18.75" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.8716216216216" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1902,7 +1902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
+    <row r="2" ht="14.1" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" ht="14.1" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
@@ -1936,440 +1936,440 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:5">
+    <row r="4" ht="14.1" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" ht="14.25" spans="1:5">
+    <row r="5" ht="14.1" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="14.25" spans="1:5">
+    <row r="6" ht="14.1" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" ht="14.25" spans="1:5">
+    <row r="7" ht="14.1" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" ht="14.25" spans="1:5">
+    <row r="8" ht="14.1" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:5">
+    <row r="9" ht="14.1" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" ht="14.25" spans="1:5">
+    <row r="10" ht="14.1" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" ht="14.25" spans="1:5">
+    <row r="11" ht="14.1" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" ht="14.25" spans="1:5">
+    <row r="12" ht="14.1" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" ht="14.25" spans="1:5">
+    <row r="13" ht="14.1" spans="1:5">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="1:5">
+    <row r="14" ht="14.1" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" ht="14.25" spans="1:5">
+    <row r="15" ht="14.1" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" ht="14.25" spans="1:5">
+    <row r="16" ht="14.1" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" ht="14.25" spans="1:5">
+    <row r="17" ht="14.1" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" ht="14.25" spans="1:5">
+    <row r="18" ht="14.1" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" ht="14.25" spans="1:5">
+    <row r="19" ht="14.1" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" ht="14.25" spans="1:5">
+    <row r="20" ht="14.1" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" ht="14.25" spans="1:5">
+    <row r="21" ht="14.1" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" ht="14.25" spans="1:5">
+    <row r="22" ht="14.1" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" ht="14.25" spans="1:5">
+    <row r="23" ht="14.1" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" ht="14.25" spans="1:5">
+    <row r="24" ht="14.1" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" ht="14.25" spans="1:5">
+    <row r="25" ht="14.1" spans="1:5">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" ht="14.25" spans="1:5">
+    <row r="26" ht="14.1" spans="1:5">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" ht="14.25" spans="1:5">
+    <row r="27" ht="14.1" spans="1:5">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" ht="14.25" spans="1:5">
+    <row r="28" ht="14.1" spans="1:5">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" ht="14.25" spans="1:5">
+    <row r="29" ht="14.1" spans="1:5">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" ht="14.25" spans="1:5">
+    <row r="30" ht="14.1" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" ht="14.25" spans="1:5">
+    <row r="31" ht="14.1" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" ht="14.25" spans="1:5">
+    <row r="32" ht="14.1" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" ht="14.25" spans="1:5">
+    <row r="33" ht="14.1" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" ht="14.25" spans="1:5">
+    <row r="34" ht="14.1" spans="1:5">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" ht="14.25" spans="1:5">
+    <row r="35" ht="14.1" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" ht="14.25" spans="1:5">
+    <row r="36" ht="14.1" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" ht="14.25" spans="1:5">
+    <row r="37" ht="14.1" spans="1:5">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" ht="14.25" spans="1:5">
+    <row r="38" ht="14.1" spans="1:5">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" ht="14.25" spans="1:5">
+    <row r="39" ht="14.1" spans="1:5">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" ht="14.25" spans="1:5">
+    <row r="40" ht="14.1" spans="1:5">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="14.25" spans="2:5">
+    <row r="41" s="2" customFormat="1" ht="14.1" spans="2:5">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" ht="14.25" spans="1:5">
+    <row r="42" ht="14.1" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" ht="14.25" spans="1:5">
+    <row r="43" ht="14.1" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" ht="14.25" spans="1:5">
+    <row r="44" ht="14.1" spans="1:5">
       <c r="A44" s="2"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" ht="14.25" spans="1:5">
+    <row r="45" ht="14.1" spans="1:5">
       <c r="A45" s="2"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" ht="14.25" spans="1:5">
+    <row r="46" ht="14.1" spans="1:5">
       <c r="A46" s="2"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" ht="14.25" spans="1:5">
+    <row r="47" ht="14.1" spans="1:5">
       <c r="A47" s="2"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" ht="14.25" spans="1:5">
+    <row r="48" ht="14.1" spans="1:5">
       <c r="A48" s="2"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" ht="14.25" spans="1:5">
+    <row r="49" ht="14.1" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" ht="14.25" spans="1:5">
+    <row r="50" ht="14.1" spans="1:5">
       <c r="A50" s="2"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" ht="14.25" spans="1:5">
+    <row r="51" ht="14.1" spans="1:5">
       <c r="A51" s="2"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" ht="14.25" spans="1:5">
+    <row r="52" ht="14.1" spans="1:5">
       <c r="A52" s="2"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" ht="14.25" spans="1:5">
+    <row r="53" ht="14.1" spans="1:5">
       <c r="A53" s="2"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" ht="14.25" spans="1:5">
+    <row r="54" ht="14.1" spans="1:5">
       <c r="A54" s="2"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" ht="14.25" spans="1:5">
+    <row r="55" ht="14.1" spans="1:5">
       <c r="A55" s="2"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" ht="14.25" spans="1:5">
+    <row r="56" ht="14.1" spans="1:5">
       <c r="A56" s="2"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" ht="14.25" spans="1:5">
+    <row r="57" ht="14.1" spans="1:5">
       <c r="A57" s="2"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" ht="14.25" spans="1:5">
+    <row r="58" ht="14.1" spans="1:5">
       <c r="A58" s="2"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" ht="14.25" spans="1:5">
+    <row r="59" ht="14.1" spans="1:5">
       <c r="A59" s="2"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" ht="14.25" spans="1:5">
+    <row r="60" ht="14.1" spans="1:5">
       <c r="A60" s="2"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" ht="14.25" spans="1:5">
+    <row r="61" ht="14.1" spans="1:5">
       <c r="A61" s="2"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" ht="14.25" spans="1:5">
+    <row r="62" ht="14.1" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" ht="14.25" spans="1:5">
+    <row r="63" ht="14.1" spans="1:5">
       <c r="A63" s="2"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" ht="14.25" spans="1:5">
+    <row r="64" ht="14.1" spans="1:5">
       <c r="A64" s="2"/>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" ht="14.25" spans="1:5">
+    <row r="65" ht="14.1" spans="1:5">
       <c r="A65" s="2"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" ht="14.25" spans="1:5">
+    <row r="66" ht="14.1" spans="1:5">
       <c r="A66" s="2"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
@@ -2392,12 +2392,12 @@
       <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.1" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.8733333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.3733333333333" customWidth="1"/>
-    <col min="3" max="3" width="23.6266666666667" customWidth="1"/>
-    <col min="4" max="4" width="64.7533333333333" customWidth="1"/>
+    <col min="1" max="1" width="27.8716216216216" customWidth="1"/>
+    <col min="2" max="2" width="22.3716216216216" customWidth="1"/>
+    <col min="3" max="3" width="23.6283783783784" customWidth="1"/>
+    <col min="4" max="4" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/xforms/xlsforms/location_registration.xlsx
+++ b/xforms/xlsforms/location_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21971" windowHeight="7600" tabRatio="500"/>
+    <workbookView windowWidth="28399" windowHeight="13004" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -135,10 +135,10 @@
     <t>Location Name</t>
   </si>
   <si>
-    <t>(regex(., '^[0-9]{4}-[0-9]{3}$'))</t>
-  </si>
-  <si>
-    <t>O formato do numero de agregado deve ser XXXX-XXX</t>
+    <t>(regex(., '^[0-9]{4}-(([0-9]{3})|([0-9]{4}))$'))</t>
+  </si>
+  <si>
+    <t>O formato do numero de agregado deve ser XXXX-XXX ou XXXX-XXXX</t>
   </si>
   <si>
     <t>select_one locationType</t>
@@ -221,8 +221,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -269,6 +269,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -279,30 +294,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,36 +316,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,37 +342,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,6 +359,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -428,187 +428,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,13 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,9 +669,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,177 +711,156 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1301,7 +1301,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8:I8"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8716216216216" defaultRowHeight="11.85"/>
@@ -1313,7 +1313,7 @@
     <col min="5" max="5" width="26" style="9" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="22.8716216216216" style="9" customWidth="1"/>
+    <col min="8" max="8" width="28.2027027027027" style="9" customWidth="1"/>
     <col min="9" max="9" width="25" style="9" customWidth="1"/>
     <col min="10" max="11" width="10.8716216216216" style="9"/>
     <col min="12" max="12" width="19.1283783783784" style="9" customWidth="1"/>
